--- a/data/ind-demographic-data.xlsx
+++ b/data/ind-demographic-data.xlsx
@@ -403,13 +403,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -422,16 +422,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2067</v>
+        <v>2150</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -441,16 +441,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2512</v>
+        <v>2614</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>14.62</v>
+        <v>14.66</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -460,16 +460,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3001</v>
+        <v>3093</v>
       </c>
       <c r="C5" t="n">
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>17.47</v>
+        <v>17.34</v>
       </c>
       <c r="E5" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3214</v>
+        <v>3310</v>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>18.71</v>
+        <v>18.56</v>
       </c>
       <c r="E6" t="n">
-        <v>6.02</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="7">
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2531</v>
+        <v>2624</v>
       </c>
       <c r="C7" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" t="n">
-        <v>14.73</v>
+        <v>14.71</v>
       </c>
       <c r="E7" t="n">
-        <v>18.15</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="8">
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620</v>
+        <v>1691</v>
       </c>
       <c r="C8" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D8" t="n">
-        <v>9.43</v>
+        <v>9.48</v>
       </c>
       <c r="E8" t="n">
-        <v>27.49</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="9">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1811</v>
+        <v>1899</v>
       </c>
       <c r="C9" t="n">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D9" t="n">
-        <v>10.54</v>
+        <v>10.65</v>
       </c>
       <c r="E9" t="n">
-        <v>45.02</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="10">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9071</v>
+        <v>9404</v>
       </c>
       <c r="C2" t="n">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D2" t="n">
-        <v>52.79</v>
+        <v>52.73</v>
       </c>
       <c r="E2" t="n">
-        <v>44.09</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="3">
@@ -639,16 +639,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7790</v>
+        <v>8079</v>
       </c>
       <c r="C3" t="n">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D3" t="n">
-        <v>45.34</v>
+        <v>45.3</v>
       </c>
       <c r="E3" t="n">
-        <v>53.84</v>
+        <v>53.23</v>
       </c>
     </row>
     <row r="4">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2688</v>
+        <v>2767</v>
       </c>
       <c r="C3" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
-        <v>15.64</v>
+        <v>15.51</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="4">
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2571</v>
+        <v>2657</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>14.96</v>
+        <v>14.9</v>
       </c>
       <c r="E4" t="n">
-        <v>11.31</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="5">
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3527</v>
+        <v>3789</v>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>20.53</v>
+        <v>21.24</v>
       </c>
       <c r="E5" t="n">
-        <v>6.33</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="6">
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8124</v>
+        <v>8344</v>
       </c>
       <c r="C6" t="n">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="D6" t="n">
-        <v>47.28</v>
+        <v>46.78</v>
       </c>
       <c r="E6" t="n">
-        <v>65.25</v>
+        <v>64.75</v>
       </c>
     </row>
   </sheetData>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587</v>
+        <v>1642</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>9.24</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6598</v>
+        <v>6801</v>
       </c>
       <c r="C3" t="n">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="D3" t="n">
-        <v>38.4</v>
+        <v>38.13</v>
       </c>
       <c r="E3" t="n">
-        <v>55.39</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="4">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8997</v>
+        <v>9392</v>
       </c>
       <c r="C4" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D4" t="n">
-        <v>52.36</v>
+        <v>52.66</v>
       </c>
       <c r="E4" t="n">
-        <v>43.15</v>
+        <v>43.3</v>
       </c>
     </row>
   </sheetData>
